--- a/all_annotated/TECD_Q4_2008_2.xlsx
+++ b/all_annotated/TECD_Q4_2008_2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/Huzaifa-annotations/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB3099-3848-4D44-9A78-50323CC92D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -195,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +265,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -305,7 +319,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,9 +351,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +403,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,14 +596,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -599,25 +651,25 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -637,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -649,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -669,10 +721,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -681,7 +733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -701,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -713,7 +765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -733,10 +785,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -745,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -765,10 +817,10 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -777,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -797,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -809,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -826,13 +878,13 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -841,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -861,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -873,7 +925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -890,13 +942,13 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -905,7 +957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -922,13 +974,13 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -937,7 +989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -957,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -969,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -986,13 +1038,13 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1001,7 +1053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1018,13 +1070,13 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1033,7 +1085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1053,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1065,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1097,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1114,13 +1166,13 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1129,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1146,10 +1198,10 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1161,7 +1213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1181,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -1193,7 +1245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1213,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>2</v>
